--- a/medicine/Enfance/Les_Six_Compagnons_et_la_Disparue_de_Montélimar/Les_Six_Compagnons_et_la_Disparue_de_Montélimar.xlsx
+++ b/medicine/Enfance/Les_Six_Compagnons_et_la_Disparue_de_Montélimar/Les_Six_Compagnons_et_la_Disparue_de_Montélimar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Six_Compagnons_et_la_Disparue_de_Mont%C3%A9limar</t>
+          <t>Les_Six_Compagnons_et_la_Disparue_de_Montélimar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Six Compagnons et la Disparue de Montélimar est le 18e roman, sur 49 titres publiés, de la série Les Six Compagnons créée par Paul-Jacques Bonzon.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Six_Compagnons_et_la_Disparue_de_Mont%C3%A9limar</t>
+          <t>Les_Six_Compagnons_et_la_Disparue_de_Montélimar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Six Compagnons
 Tidou
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Six_Compagnons_et_la_Disparue_de_Mont%C3%A9limar</t>
+          <t>Les_Six_Compagnons_et_la_Disparue_de_Montélimar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Compagnons veulent venir en aide financière à La Guille qui s'est blessé à Lyon dans un accident de la circulation. Valérie et Marius Plantevigne, oncle et tante de Mady habitant à Montélimar, ont accepté que les Compagnons plantent leurs tentes dans le jardin de leur propriété et leur ont même trouvé du travail. Les quatre garçons se rendent donc à Montélimar en vélomoteurs. Le lendemain de leur arrivée, le Tondu et Tidou font la connaissance d'un adolescent aux cheveux blonds, apeuré, épuisé, qui s'était caché dans un coin (invisible à l'œil nu) d'un poids-lourd. L'adolescent est effrayé par Kafi et propose même de l’argent pour que Tidou et le Tondu le laissent partir sans poser de questions. Une jeune fille amie de Mady, Farigoulette Villeneuve, a découvert un peigne oublié sur un banc du parc public et pense qu'il appartient à l'adolescent.
 Le lendemain, on apprend par la radio qu'un adolescent de Troyes s'est enfui de chez-lui et a disparu : un avis de recherche est lancé. La description faite par la radio ne laisse aucun doute : l'adolescent inconnu rencontré précédemment est le fugitif et s'appelle Ludovic Barois. Le jour suivant, les Compagnons et Mady découvrent Ludovic dans une maison abandonnée. La description du fugitif et le peigne permettent de confirmer son identité. Ludovic leur explique la raison de sa fugue : son tuteur est le mari d'une tante qui est morte ; il est âpre au gain ; cet homme ne l’aime pas. Mais surtout, Ludovic a appris par hasard que sa petite sœur Christine, qu'il croyait être morte dans l'incendie de la maison familiale qui avait tué sa mère un peu moins d'une dizaine d'années auparavant, pourrait être vivante. Elle aurait été sauvée par une femme inconnue lors de l'incendie. Ludovic a donc décidé de fuir Troyes et de venir à Montélimar pour retrouver les lieux de la maison incendiée et faire des recherches sur l'existence éventuelle de sa sœur.
